--- a/SHOWROOM DATA FUNCTION (1) (2) (2).xlsx
+++ b/SHOWROOM DATA FUNCTION (1) (2) (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Cybrom work\Advance Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66226934-E2EB-4F83-B4C5-8E5D211C8517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7EDED4-AA6B-4EF7-9981-33E23BEF562F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>E-commerce Data</t>
   </si>
@@ -251,17 +251,51 @@
   </si>
   <si>
     <t>find out the total sale for city ,mumbai and banglore</t>
+  </si>
+  <si>
+    <t>find out the total sale of home decor</t>
+  </si>
+  <si>
+    <t>countif</t>
+  </si>
+  <si>
+    <t>countifs</t>
+  </si>
+  <si>
+    <t>how many customer have use upi as payment method and there delivery status is delivered</t>
+  </si>
+  <si>
+    <t>find out the total sale if the customer has ordered more than 2 quantity</t>
+  </si>
+  <si>
+    <t>how many customer has a discount more than 5%</t>
+  </si>
+  <si>
+    <t>find out the total sale if the customer is from mumbai and the category is  electronics in which the discount is less than and equal to 5%</t>
+  </si>
+  <si>
+    <t>how many customer has used credit card as payment method abd they got discount more than equal to 5% and there product has been delivered</t>
+  </si>
+  <si>
+    <t>how many customer used credit card and and item also delivered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,28 +343,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="106" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -797,7 +840,7 @@
       </c>
       <c r="O7">
         <f>COUNTA(K4:K13)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P7" t="s">
         <v>57</v>
@@ -834,7 +877,9 @@
       <c r="J8" s="2">
         <v>5</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
         <v>2400</v>
@@ -844,7 +889,7 @@
       </c>
       <c r="O8">
         <f>COUNTA(K4:K13)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P8" t="s">
         <v>58</v>
@@ -881,7 +926,9 @@
       <c r="J9" s="2">
         <v>8</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
         <v>45000</v>
@@ -891,7 +938,7 @@
       </c>
       <c r="O9">
         <f>COUNTBLANK(K4:K13)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1021,6 +1068,13 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12">
+        <f>COUNTIF(K4:K13,"pending")</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
@@ -1059,6 +1113,13 @@
       <c r="L13" s="4">
         <f t="shared" si="0"/>
         <v>800</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13">
+        <f>COUNTIFS(I4:I13,"credit card",K4:K13,"delivered")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1096,11 +1157,11 @@
     <row r="19" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" cm="1">
-        <f t="array" aca="1" ref="B21" ca="1">B21:C42=SUMIF(I4:I13,"credit card",L4:L13)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21">
+        <f>SUMIF(I4:I13,"credit card",L4:L13)</f>
+        <v>85800</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1109,7 +1170,7 @@
         <f>SUMIF(C4:C13,"mumbai",G4:G13)</f>
         <v>5</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1118,7 +1179,7 @@
         <f>SUMIF(C4:C13,"mumbai",L4:L13)+SUMIF(C4:C13,"bangalore",L4:L13)</f>
         <v>43200</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1127,31 +1188,73 @@
         <f t="array" ref="B24">SUM(SUMIF(C4:C13,{"mumbai","bangalore"},L4:L13))</f>
         <v>43200</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="5"/>
+      <c r="B25">
+        <f>SUMIF(D4:D13,"home decor",L4:L13)</f>
+        <v>2000</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="26" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="6"/>
+      <c r="B26">
+        <f>COUNTIFS(I4:I13,"credit card",K4:K13,"delivered")</f>
+        <v>2</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="5"/>
+      <c r="B27">
+        <f>COUNTIFS(I4:I13,"upi",K4:K13,"delivered")</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="28" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="6"/>
+      <c r="B28">
+        <f>SUMIF(G4:G13,"&gt;2",L4:L13)</f>
+        <v>6300</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="29" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="5"/>
+      <c r="B29">
+        <f>COUNTIF(J4:J13,"&gt;5")</f>
+        <v>5</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <f>SUMIFS(L4:L13,C4:C13,"mumbai",D4:D13,"electronics",J4:J13,"&lt;=5")</f>
+        <v>30000</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <f>COUNTIFS(I4:I13,"credit card",J4:J13,"&gt;=5",K4:K13,"delivered")</f>
+        <v>2</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="32" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="6"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="5"/>
@@ -2146,6 +2249,6 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SHOWROOM DATA FUNCTION (1) (2) (2).xlsx
+++ b/SHOWROOM DATA FUNCTION (1) (2) (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Cybrom work\Advance Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7EDED4-AA6B-4EF7-9981-33E23BEF562F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD632C9-1A50-411B-8014-01CA4768AE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
   <si>
     <t>E-commerce Data</t>
   </si>
@@ -278,17 +279,90 @@
   </si>
   <si>
     <t>how many customer used credit card and and item also delivered</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>avga</t>
+  </si>
+  <si>
+    <t>AVERAGEA</t>
+  </si>
+  <si>
+    <t>sumif</t>
+  </si>
+  <si>
+    <t>sumifs</t>
+  </si>
+  <si>
+    <t>both text and numeric</t>
+  </si>
+  <si>
+    <t>numeric value</t>
+  </si>
+  <si>
+    <t>Tushar</t>
+  </si>
+  <si>
+    <t>Shukla</t>
+  </si>
+  <si>
+    <t>concate</t>
+  </si>
+  <si>
+    <t>conate with space</t>
+  </si>
+  <si>
+    <t>abhi</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both numerical and text </t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>Cybrom technology</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>target not ach</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>OR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,6 +396,19 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -343,37 +430,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,34 +685,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="106" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="106" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.6328125" customWidth="1"/>
     <col min="3" max="3" width="55.36328125" customWidth="1"/>
-    <col min="16" max="16" width="65.26953125" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -655,11 +750,17 @@
       <c r="L3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>101</v>
       </c>
@@ -697,15 +798,20 @@
         <f>F4*G4</f>
         <v>30000</v>
       </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4">
-        <f>MAX(L4:L13)</f>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" t="str">
+        <f>IF(L4&gt;=1500,"target ach","target not ach")</f>
+        <v>target ach</v>
+      </c>
+      <c r="N4" t="b">
+        <f>AND(I4 ="credit card",K4= "delivered")</f>
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <f>OR(I4= "credit card",I4= "upi")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>102</v>
       </c>
@@ -743,15 +849,20 @@
         <f t="shared" ref="L5:L13" si="0">F5*G5</f>
         <v>1500</v>
       </c>
-      <c r="N5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5">
-        <f>MIN(L4:L13)</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" t="str">
+        <f t="shared" ref="M5:M13" si="1">IF(L5&gt;=1500,"target ach","target not ach")</f>
+        <v>target ach</v>
+      </c>
+      <c r="N5" t="b">
+        <f t="shared" ref="N5:N13" si="2">AND(I5 ="credit card",K5= "delivered")</f>
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <f t="shared" ref="O5:O13" si="3">OR(I5= "credit card",I5= "upi")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>103</v>
       </c>
@@ -789,15 +900,20 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6">
-        <f>COUNT(A4:A13)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>target ach</v>
+      </c>
+      <c r="N6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>104</v>
       </c>
@@ -835,18 +951,20 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="N7" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7">
-        <f>COUNTA(K4:K13)</f>
-        <v>10</v>
-      </c>
-      <c r="P7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>target not ach</v>
+      </c>
+      <c r="N7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>105</v>
       </c>
@@ -884,18 +1002,20 @@
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="N8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8">
-        <f>COUNTA(K4:K13)</f>
-        <v>10</v>
-      </c>
-      <c r="P8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>target ach</v>
+      </c>
+      <c r="N8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>106</v>
       </c>
@@ -933,15 +1053,20 @@
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="N9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9">
-        <f>COUNTBLANK(K4:K13)</f>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>target ach</v>
+      </c>
+      <c r="N9" t="b">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>107</v>
       </c>
@@ -979,15 +1104,20 @@
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="N10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10">
-        <f>L14/O6</f>
-        <v>10020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>target ach</v>
+      </c>
+      <c r="N10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>108</v>
       </c>
@@ -1025,12 +1155,20 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="O11">
-        <f>AVERAGE(L4:L13)</f>
-        <v>10020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>target ach</v>
+      </c>
+      <c r="N11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>109</v>
       </c>
@@ -1068,15 +1206,20 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="N12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O12">
-        <f>COUNTIF(K4:K13,"pending")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>target ach</v>
+      </c>
+      <c r="N12" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>110</v>
       </c>
@@ -1114,15 +1257,20 @@
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="N13" t="s">
-        <v>68</v>
-      </c>
-      <c r="O13">
-        <f>COUNTIFS(I4:I13,"credit card",K4:K13,"delivered")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>target not ach</v>
+      </c>
+      <c r="N13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
       <c r="K14" s="2" t="s">
@@ -1133,8 +1281,8 @@
         <v>100200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
@@ -1142,10 +1290,9 @@
         <f>SUMIF(D4:D13,"ELECTRONICS",L4:L13)</f>
         <v>87000</v>
       </c>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>62</v>
       </c>
@@ -1154,160 +1301,364 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M19">
+        <f>COUNTIF(M4:M13,"target not ach")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21">
         <f>SUMIF(I4:I13,"credit card",L4:L13)</f>
         <v>85800</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22">
         <f>SUMIF(C4:C13,"mumbai",G4:G13)</f>
         <v>5</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23">
         <f>SUMIF(C4:C13,"mumbai",L4:L13)+SUMIF(C4:C13,"bangalore",L4:L13)</f>
         <v>43200</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" cm="1">
         <f t="array" ref="B24">SUM(SUMIF(C4:C13,{"mumbai","bangalore"},L4:L13))</f>
         <v>43200</v>
       </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="8"/>
+      <c r="N24" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25">
         <f>SUMIF(D4:D13,"home decor",L4:L13)</f>
         <v>2000</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26">
         <f>COUNTIFS(I4:I13,"credit card",K4:K13,"delivered")</f>
         <v>2</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O26" t="str">
+        <f>_xlfn.CONCAT(N24:O24)</f>
+        <v>TusharShukla</v>
+      </c>
+      <c r="P26" t="str">
+        <f>_xlfn.CONCAT(N24:P24)</f>
+        <v>TusharShuklaabhi</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27">
         <f>COUNTIFS(I4:I13,"upi",K4:K13,"delivered")</f>
         <v>2</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O27" t="str">
+        <f>_xlfn.CONCAT(N24," ",O24)</f>
+        <v>Tushar Shukla</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28">
         <f>SUMIF(G4:G13,"&gt;2",L4:L13)</f>
         <v>6300</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M28" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O28" t="str">
+        <f>LEFT(O27,4)</f>
+        <v>Tush</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29">
         <f>COUNTIF(J4:J13,"&gt;5")</f>
         <v>5</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M29" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O29" t="str">
+        <f>RIGHT(O27,3)</f>
+        <v>kla</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30">
         <f>SUMIFS(L4:L13,C4:C13,"mumbai",D4:D13,"electronics",J4:J13,"&lt;=5")</f>
         <v>30000</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O30">
+        <f>LEN(O27)</f>
+        <v>13</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31">
         <f>COUNTIFS(I4:I13,"credit card",J4:J13,"&gt;=5",K4:K13,"delivered")</f>
         <v>2</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O31">
+        <f>LEN(L14)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="7"/>
+      <c r="M32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O32" t="str">
+        <f>MID(O27,3,3)</f>
+        <v>sha</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O33" t="str">
+        <f>MID(L14,3,3)</f>
+        <v>020</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M34" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O34" t="str">
+        <f>MID(M34,4,8)</f>
+        <v>rom tech</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>100</v>
+      </c>
       <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="6">
+        <f>AVERAGE(B35:B36)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>200</v>
+      </c>
       <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="5">
+        <f>AVERAGEA(B35:B37)</f>
+        <v>100.33333333333333</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
       <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I37" t="s">
+        <v>53</v>
+      </c>
+      <c r="J37">
+        <f>MAX(L4:L13)</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I38" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38">
+        <f>MIN(L4:L13)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39">
+        <f>COUNT(A4:A13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I40" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40">
+        <f>COUNTA(K4:K13)</f>
+        <v>10</v>
+      </c>
+      <c r="K40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41">
+        <f>COUNTA(K4:K13)</f>
+        <v>10</v>
+      </c>
+      <c r="K41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="I42" t="s">
+        <v>59</v>
+      </c>
+      <c r="J42">
+        <f>COUNTBLANK(K4:K13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I43" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43">
+        <f>L14/J39</f>
+        <v>10020</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J44">
+        <f>AVERAGE(L4:L13)</f>
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45">
+        <f>COUNTIF(K4:K13,"pending")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46">
+        <f>COUNTIFS(I4:I13,"credit card",K4:K13,"delivered")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I48" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I49" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/SHOWROOM DATA FUNCTION (1) (2) (2).xlsx
+++ b/SHOWROOM DATA FUNCTION (1) (2) (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Cybrom work\Advance Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD632C9-1A50-411B-8014-01CA4768AE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA4F234-A22E-4286-A66F-924AB0B5E507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
   <si>
     <t>E-commerce Data</t>
   </si>
@@ -345,17 +344,36 @@
   </si>
   <si>
     <t>OR</t>
+  </si>
+  <si>
+    <t>how many customer have bought electronics item</t>
+  </si>
+  <si>
+    <t>find out the total sale if the payment is done by cash and the discount is 2 % and delivery status is pending</t>
+  </si>
+  <si>
+    <t>how many customer has usd debit card and upi with logical function</t>
+  </si>
+  <si>
+    <t>or</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,44 +448,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="106" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -697,23 +718,23 @@
     <col min="16" max="16" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -750,17 +771,20 @@
       <c r="L3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>101</v>
       </c>
@@ -811,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>102</v>
       </c>
@@ -862,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>103</v>
       </c>
@@ -913,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>104</v>
       </c>
@@ -964,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>105</v>
       </c>
@@ -1015,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>106</v>
       </c>
@@ -1066,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>107</v>
       </c>
@@ -1117,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>108</v>
       </c>
@@ -1168,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>109</v>
       </c>
@@ -1219,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>110</v>
       </c>
@@ -1270,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
       <c r="K14" s="2" t="s">
@@ -1281,8 +1305,8 @@
         <v>100200</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
@@ -1302,7 +1326,7 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="10" t="s">
         <v>94</v>
       </c>
       <c r="M19">
@@ -1316,7 +1340,7 @@
         <f>SUMIF(I4:I13,"credit card",L4:L13)</f>
         <v>85800</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1325,7 +1349,7 @@
         <f>SUMIF(C4:C13,"mumbai",G4:G13)</f>
         <v>5</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1334,7 +1358,7 @@
         <f>SUMIF(C4:C13,"mumbai",L4:L13)+SUMIF(C4:C13,"bangalore",L4:L13)</f>
         <v>43200</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1343,14 +1367,14 @@
         <f t="array" ref="B24">SUM(SUMIF(C4:C13,{"mumbai","bangalore"},L4:L13))</f>
         <v>43200</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="N24" s="11" t="s">
+      <c r="C24" s="7"/>
+      <c r="N24" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1359,7 +1383,7 @@
         <f>SUMIF(D4:D13,"home decor",L4:L13)</f>
         <v>2000</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1368,10 +1392,10 @@
         <f>COUNTIFS(I4:I13,"credit card",K4:K13,"delivered")</f>
         <v>2</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O26" t="str">
@@ -1388,10 +1412,10 @@
         <f>COUNTIFS(I4:I13,"upi",K4:K13,"delivered")</f>
         <v>2</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="10" t="s">
         <v>85</v>
       </c>
       <c r="O27" t="str">
@@ -1404,10 +1428,10 @@
         <f>SUMIF(G4:G13,"&gt;2",L4:L13)</f>
         <v>6300</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="10" t="s">
         <v>87</v>
       </c>
       <c r="O28" t="str">
@@ -1420,10 +1444,10 @@
         <f>COUNTIF(J4:J13,"&gt;5")</f>
         <v>5</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="10" t="s">
         <v>88</v>
       </c>
       <c r="O29" t="str">
@@ -1436,17 +1460,17 @@
         <f>SUMIFS(L4:L13,C4:C13,"mumbai",D4:D13,"electronics",J4:J13,"&lt;=5")</f>
         <v>30000</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="10" t="s">
         <v>89</v>
       </c>
       <c r="O30">
         <f>LEN(O27)</f>
         <v>13</v>
       </c>
-      <c r="P30" s="11" t="s">
+      <c r="P30" s="10" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1455,7 +1479,7 @@
         <f>COUNTIFS(I4:I13,"credit card",J4:J13,"&gt;=5",K4:K13,"delivered")</f>
         <v>2</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O31">
@@ -1464,28 +1488,40 @@
       </c>
     </row>
     <row r="32" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="7"/>
-      <c r="M32" s="11" t="s">
+      <c r="C32" s="14"/>
+      <c r="M32" s="10" t="s">
         <v>91</v>
       </c>
       <c r="O32" t="str">
         <f>MID(O27,3,3)</f>
         <v>sha</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="5"/>
+      <c r="B33">
+        <f>COUNT(OR(I4:I13,"debit card","upi"))</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="O33" t="str">
         <f>MID(L14,3,3)</f>
         <v>020</v>
       </c>
     </row>
     <row r="34" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="6"/>
-      <c r="M34" s="11" t="s">
+      <c r="B34">
+        <f>COUNTIF(D4:D13,"electronics")</f>
+        <v>4</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" s="10" t="s">
         <v>92</v>
       </c>
       <c r="O34" t="str">
@@ -1495,38 +1531,19 @@
     </row>
     <row r="35" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>100</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="6">
-        <f>AVERAGE(B35:B36)</f>
-        <v>150</v>
+        <f>SUMIFS(L4:L13,I4:I13,"cash",J4:J13,"&gt;2",K4:K13,"pending")</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36">
-        <v>200</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="5">
-        <f>AVERAGEA(B35:B37)</f>
-        <v>100.33333333333333</v>
-      </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" t="b">
-        <v>1</v>
-      </c>
-      <c r="C37" s="5"/>
       <c r="I37" t="s">
         <v>53</v>
       </c>
@@ -1580,7 +1597,17 @@
       </c>
     </row>
     <row r="42" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="6"/>
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="6">
+        <f>AVERAGE(B42:B43)</f>
+        <v>150</v>
+      </c>
       <c r="I42" t="s">
         <v>59</v>
       </c>
@@ -1590,6 +1617,17 @@
       </c>
     </row>
     <row r="43" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>200</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="5">
+        <f>AVERAGEA(B42:B44)</f>
+        <v>100.33333333333333</v>
+      </c>
       <c r="I43" t="s">
         <v>60</v>
       </c>
@@ -1597,11 +1635,15 @@
         <f>L14/J39</f>
         <v>10020</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5"/>
       <c r="J44">
         <f>AVERAGE(L4:L13)</f>
         <v>10020</v>
@@ -1629,17 +1671,17 @@
       <c r="I47" t="s">
         <v>77</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="9:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K49" s="5"/>

--- a/SHOWROOM DATA FUNCTION (1) (2) (2).xlsx
+++ b/SHOWROOM DATA FUNCTION (1) (2) (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Cybrom work\Advance Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA4F234-A22E-4286-A66F-924AB0B5E507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED47918E-3E1F-4DAC-987C-5FDF15AF1DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -352,21 +352,28 @@
     <t>find out the total sale if the payment is done by cash and the discount is 2 % and delivery status is pending</t>
   </si>
   <si>
-    <t>how many customer has usd debit card and upi with logical function</t>
-  </si>
-  <si>
     <t>or</t>
+  </si>
+  <si>
+    <t>how many customer has use debit card or upi with logical function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,47 +455,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -719,19 +729,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -781,7 +791,7 @@
         <v>96</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -834,6 +844,10 @@
         <f>OR(I4= "credit card",I4= "upi")</f>
         <v>1</v>
       </c>
+      <c r="P4" t="b">
+        <f>OR(I4="debit card",I4="upi")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
@@ -885,6 +899,10 @@
         <f t="shared" ref="O5:O13" si="3">OR(I5= "credit card",I5= "upi")</f>
         <v>1</v>
       </c>
+      <c r="P5" t="b">
+        <f t="shared" ref="P5:P13" si="4">OR(I5="debit card",I5="upi")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
@@ -936,6 +954,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="P6" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
@@ -987,6 +1009,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="P7" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
@@ -1038,6 +1064,10 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="P8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
@@ -1089,6 +1119,10 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="P9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -1140,6 +1174,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="P10" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
@@ -1191,6 +1229,10 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="P11" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
@@ -1242,6 +1284,10 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="P12" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
@@ -1292,6 +1338,10 @@
       <c r="O13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1488,7 +1538,7 @@
       </c>
     </row>
     <row r="32" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="14"/>
+      <c r="C32" s="12"/>
       <c r="M32" s="10" t="s">
         <v>91</v>
       </c>
@@ -1502,11 +1552,11 @@
     </row>
     <row r="33" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33">
-        <f>COUNT(OR(I4:I13,"debit card","upi"))</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>99</v>
+        <f>COUNTIF(O4:O13,"TRUE")</f>
+        <v>7</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="O33" t="str">
         <f>MID(L14,3,3)</f>
@@ -1534,7 +1584,7 @@
         <f>SUMIFS(L4:L13,I4:I13,"cash",J4:J13,"&gt;2",K4:K13,"pending")</f>
         <v>0</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="13" t="s">
         <v>98</v>
       </c>
     </row>

--- a/SHOWROOM DATA FUNCTION (1) (2) (2).xlsx
+++ b/SHOWROOM DATA FUNCTION (1) (2) (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Cybrom work\Advance Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED47918E-3E1F-4DAC-987C-5FDF15AF1DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC530CF2-DECF-43BA-B10A-5FE8C599A9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -841,8 +841,8 @@
         <v>1</v>
       </c>
       <c r="O4" t="b">
-        <f>OR(I4= "credit card",I4= "upi")</f>
-        <v>1</v>
+        <f>OR(I4= "debit card",I4= "upi")</f>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
         <f>OR(I4="debit card",I4="upi")</f>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="b">
-        <f t="shared" ref="O5:O13" si="3">OR(I5= "credit card",I5= "upi")</f>
+        <f t="shared" ref="O5:O13" si="3">OR(I5= "debit card",I5= "upi")</f>
         <v>1</v>
       </c>
       <c r="P5" t="b">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="O7" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="b">
         <f t="shared" si="4"/>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="O9" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
         <f t="shared" si="4"/>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O12" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
         <f t="shared" si="4"/>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="O13" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
         <f t="shared" si="4"/>
@@ -1553,7 +1553,7 @@
     <row r="33" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33">
         <f>COUNTIF(O4:O13,"TRUE")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>100</v>

--- a/SHOWROOM DATA FUNCTION (1) (2) (2).xlsx
+++ b/SHOWROOM DATA FUNCTION (1) (2) (2).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Cybrom work\Advance Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC530CF2-DECF-43BA-B10A-5FE8C599A9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A920FCF2-7584-4038-99BB-EC4FC1E996A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="110">
   <si>
     <t>E-commerce Data</t>
   </si>
@@ -356,6 +357,33 @@
   </si>
   <si>
     <t>how many customer has use debit card or upi with logical function</t>
+  </si>
+  <si>
+    <t>poja sinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ramesh </t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>month text</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>date 7</t>
+  </si>
+  <si>
+    <t>5 year</t>
+  </si>
+  <si>
+    <t>7 day before</t>
+  </si>
+  <si>
+    <t>city starting 3 char</t>
   </si>
 </sst>
 </file>
@@ -455,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -499,6 +527,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1000"/>
+  <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A2" zoomScale="106" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -728,7 +758,7 @@
     <col min="16" max="16" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -743,8 +773,8 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -781,20 +811,20 @@
       <c r="L3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>101</v>
       </c>
@@ -832,24 +862,24 @@
         <f>F4*G4</f>
         <v>30000</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f>IF(L4&gt;=1500,"target ach","target not ach")</f>
         <v>target ach</v>
       </c>
-      <c r="N4" t="b">
+      <c r="O4" t="b">
         <f>AND(I4 ="credit card",K4= "delivered")</f>
         <v>1</v>
       </c>
-      <c r="O4" t="b">
+      <c r="P4" t="b">
         <f>OR(I4= "debit card",I4= "upi")</f>
         <v>0</v>
       </c>
-      <c r="P4" t="b">
+      <c r="Q4" t="b">
         <f>OR(I4="debit card",I4="upi")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>102</v>
       </c>
@@ -887,24 +917,24 @@
         <f t="shared" ref="L5:L13" si="0">F5*G5</f>
         <v>1500</v>
       </c>
-      <c r="M5" t="str">
-        <f t="shared" ref="M5:M13" si="1">IF(L5&gt;=1500,"target ach","target not ach")</f>
+      <c r="N5" t="str">
+        <f>IF(L5&gt;=1500,"target ach","target not ach")</f>
         <v>target ach</v>
       </c>
-      <c r="N5" t="b">
-        <f t="shared" ref="N5:N13" si="2">AND(I5 ="credit card",K5= "delivered")</f>
+      <c r="O5" t="b">
+        <f>AND(I5 ="credit card",K5= "delivered")</f>
         <v>0</v>
       </c>
-      <c r="O5" t="b">
-        <f t="shared" ref="O5:O13" si="3">OR(I5= "debit card",I5= "upi")</f>
+      <c r="P5" t="b">
+        <f>OR(I5= "debit card",I5= "upi")</f>
         <v>1</v>
       </c>
-      <c r="P5" t="b">
-        <f t="shared" ref="P5:P13" si="4">OR(I5="debit card",I5="upi")</f>
+      <c r="Q5" t="b">
+        <f>OR(I5="debit card",I5="upi")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>103</v>
       </c>
@@ -942,24 +972,24 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="M6" t="str">
-        <f t="shared" si="1"/>
+      <c r="N6" t="str">
+        <f>IF(L6&gt;=1500,"target ach","target not ach")</f>
         <v>target ach</v>
       </c>
-      <c r="N6" t="b">
-        <f t="shared" si="2"/>
+      <c r="O6" t="b">
+        <f>AND(I6 ="credit card",K6= "delivered")</f>
         <v>0</v>
       </c>
-      <c r="O6" t="b">
-        <f t="shared" si="3"/>
+      <c r="P6" t="b">
+        <f>OR(I6= "debit card",I6= "upi")</f>
         <v>0</v>
       </c>
-      <c r="P6" t="b">
-        <f t="shared" si="4"/>
+      <c r="Q6" t="b">
+        <f>OR(I6="debit card",I6="upi")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>104</v>
       </c>
@@ -997,24 +1027,24 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="M7" t="str">
-        <f t="shared" si="1"/>
+      <c r="N7" t="str">
+        <f>IF(L7&gt;=1500,"target ach","target not ach")</f>
         <v>target not ach</v>
       </c>
-      <c r="N7" t="b">
-        <f t="shared" si="2"/>
+      <c r="O7" t="b">
+        <f>AND(I7 ="credit card",K7= "delivered")</f>
         <v>0</v>
       </c>
-      <c r="O7" t="b">
-        <f t="shared" si="3"/>
+      <c r="P7" t="b">
+        <f>OR(I7= "debit card",I7= "upi")</f>
         <v>1</v>
       </c>
-      <c r="P7" t="b">
-        <f t="shared" si="4"/>
+      <c r="Q7" t="b">
+        <f>OR(I7="debit card",I7="upi")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>105</v>
       </c>
@@ -1052,24 +1082,24 @@
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="M8" t="str">
-        <f t="shared" si="1"/>
+      <c r="N8" t="str">
+        <f>IF(L8&gt;=1500,"target ach","target not ach")</f>
         <v>target ach</v>
       </c>
-      <c r="N8" t="b">
-        <f t="shared" si="2"/>
+      <c r="O8" t="b">
+        <f>AND(I8 ="credit card",K8= "delivered")</f>
         <v>0</v>
       </c>
-      <c r="O8" t="b">
-        <f t="shared" si="3"/>
+      <c r="P8" t="b">
+        <f>OR(I8= "debit card",I8= "upi")</f>
         <v>1</v>
       </c>
-      <c r="P8" t="b">
-        <f t="shared" si="4"/>
+      <c r="Q8" t="b">
+        <f>OR(I8="debit card",I8="upi")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>106</v>
       </c>
@@ -1107,24 +1137,24 @@
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="M9" t="str">
-        <f t="shared" si="1"/>
+      <c r="N9" t="str">
+        <f>IF(L9&gt;=1500,"target ach","target not ach")</f>
         <v>target ach</v>
       </c>
-      <c r="N9" t="b">
-        <f t="shared" si="2"/>
+      <c r="O9" t="b">
+        <f>AND(I9 ="credit card",K9= "delivered")</f>
         <v>0</v>
       </c>
-      <c r="O9" t="b">
-        <f t="shared" si="3"/>
+      <c r="P9" t="b">
+        <f>OR(I9= "debit card",I9= "upi")</f>
         <v>0</v>
       </c>
-      <c r="P9" t="b">
-        <f t="shared" si="4"/>
+      <c r="Q9" t="b">
+        <f>OR(I9="debit card",I9="upi")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>107</v>
       </c>
@@ -1162,24 +1192,24 @@
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="M10" t="str">
-        <f t="shared" si="1"/>
+      <c r="N10" t="str">
+        <f>IF(L10&gt;=1500,"target ach","target not ach")</f>
         <v>target ach</v>
       </c>
-      <c r="N10" t="b">
-        <f t="shared" si="2"/>
+      <c r="O10" t="b">
+        <f>AND(I10 ="credit card",K10= "delivered")</f>
         <v>0</v>
       </c>
-      <c r="O10" t="b">
-        <f t="shared" si="3"/>
+      <c r="P10" t="b">
+        <f>OR(I10= "debit card",I10= "upi")</f>
         <v>0</v>
       </c>
-      <c r="P10" t="b">
-        <f t="shared" si="4"/>
+      <c r="Q10" t="b">
+        <f>OR(I10="debit card",I10="upi")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>108</v>
       </c>
@@ -1217,24 +1247,24 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="M11" t="str">
-        <f t="shared" si="1"/>
+      <c r="N11" t="str">
+        <f>IF(L11&gt;=1500,"target ach","target not ach")</f>
         <v>target ach</v>
       </c>
-      <c r="N11" t="b">
-        <f t="shared" si="2"/>
+      <c r="O11" t="b">
+        <f>AND(I11 ="credit card",K11= "delivered")</f>
         <v>0</v>
       </c>
-      <c r="O11" t="b">
-        <f t="shared" si="3"/>
+      <c r="P11" t="b">
+        <f>OR(I11= "debit card",I11= "upi")</f>
         <v>1</v>
       </c>
-      <c r="P11" t="b">
-        <f t="shared" si="4"/>
+      <c r="Q11" t="b">
+        <f>OR(I11="debit card",I11="upi")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>109</v>
       </c>
@@ -1272,24 +1302,24 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="M12" t="str">
-        <f t="shared" si="1"/>
+      <c r="N12" t="str">
+        <f>IF(L12&gt;=1500,"target ach","target not ach")</f>
         <v>target ach</v>
       </c>
-      <c r="N12" t="b">
-        <f t="shared" si="2"/>
+      <c r="O12" t="b">
+        <f>AND(I12 ="credit card",K12= "delivered")</f>
         <v>1</v>
       </c>
-      <c r="O12" t="b">
-        <f t="shared" si="3"/>
+      <c r="P12" t="b">
+        <f>OR(I12= "debit card",I12= "upi")</f>
         <v>0</v>
       </c>
-      <c r="P12" t="b">
-        <f t="shared" si="4"/>
+      <c r="Q12" t="b">
+        <f>OR(I12="debit card",I12="upi")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>110</v>
       </c>
@@ -1327,24 +1357,24 @@
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="M13" t="str">
-        <f t="shared" si="1"/>
+      <c r="N13" t="str">
+        <f>IF(L13&gt;=1500,"target ach","target not ach")</f>
         <v>target not ach</v>
       </c>
-      <c r="N13" t="b">
-        <f t="shared" si="2"/>
+      <c r="O13" t="b">
+        <f>AND(I13 ="credit card",K13= "delivered")</f>
         <v>0</v>
       </c>
-      <c r="O13" t="b">
-        <f t="shared" si="3"/>
+      <c r="P13" t="b">
+        <f>OR(I13= "debit card",I13= "upi")</f>
         <v>0</v>
       </c>
-      <c r="P13" t="b">
-        <f t="shared" si="4"/>
+      <c r="Q13" t="b">
+        <f>OR(I13="debit card",I13="upi")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
       <c r="K14" s="2" t="s">
@@ -1355,8 +1385,8 @@
         <v>100200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
@@ -1380,7 +1410,7 @@
         <v>94</v>
       </c>
       <c r="M19">
-        <f>COUNTIF(M4:M13,"target not ach")</f>
+        <f>COUNTIF(N4:N13,"target not ach")</f>
         <v>2</v>
       </c>
     </row>
@@ -1552,7 +1582,7 @@
     </row>
     <row r="33" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33">
-        <f>COUNTIF(O4:O13,"TRUE")</f>
+        <f>COUNTIF(P4:P13,"TRUE")</f>
         <v>4</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -2694,4 +2724,809 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C913D7-0943-44A2-97D4-B303F9564F8B}">
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
+    <col min="14" max="14" width="11.54296875" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" customWidth="1"/>
+    <col min="19" max="19" width="19.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45597</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4">
+        <f>F2*G2</f>
+        <v>30000</v>
+      </c>
+      <c r="M2">
+        <f>MONTH(H2)</f>
+        <v>11</v>
+      </c>
+      <c r="N2" t="str">
+        <f>TEXT(H2,"MMM")</f>
+        <v>Nov</v>
+      </c>
+      <c r="O2">
+        <f>YEAR(H2)</f>
+        <v>2024</v>
+      </c>
+      <c r="P2" s="17">
+        <f>H2+7</f>
+        <v>45604</v>
+      </c>
+      <c r="Q2" s="17">
+        <f>EDATE(H2,12*5)</f>
+        <v>47423</v>
+      </c>
+      <c r="R2" s="18">
+        <f>P2-H2</f>
+        <v>7</v>
+      </c>
+      <c r="S2" t="str">
+        <f>LEFT(C2,3)</f>
+        <v>Mum</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>103</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2">
+        <v>500</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45598</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4">
+        <f>F3*G3</f>
+        <v>1500</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M12" si="0">MONTH(H3)</f>
+        <v>11</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N11" si="1">TEXT(H3,"MMM")</f>
+        <v>Nov</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O11" si="2">YEAR(H3)</f>
+        <v>2024</v>
+      </c>
+      <c r="P3" s="17">
+        <f t="shared" ref="P3:P11" si="3">H3+7</f>
+        <v>45605</v>
+      </c>
+      <c r="Q3" s="17">
+        <f t="shared" ref="Q3:Q11" si="4">EDATE(H3,12*5)</f>
+        <v>47424</v>
+      </c>
+      <c r="R3" s="18">
+        <f t="shared" ref="R3:R11" si="5">P3-H3</f>
+        <v>7</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S11" si="6">LEFT(C3,3)</f>
+        <v>Del</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>110</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45601</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="4">
+        <f>F4*G4</f>
+        <v>2000</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="1"/>
+        <v>Nov</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="P4" s="17">
+        <f t="shared" si="3"/>
+        <v>45608</v>
+      </c>
+      <c r="Q4" s="17">
+        <f t="shared" si="4"/>
+        <v>47427</v>
+      </c>
+      <c r="R4" s="18">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="6"/>
+        <v>Ban</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>106</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45602</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4">
+        <f>F5*G5</f>
+        <v>1200</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nov</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="P5" s="17">
+        <f t="shared" si="3"/>
+        <v>45609</v>
+      </c>
+      <c r="Q5" s="17">
+        <f t="shared" si="4"/>
+        <v>47428</v>
+      </c>
+      <c r="R5" s="18">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="6"/>
+        <v>Mum</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>108</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>45603</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="4">
+        <f>F6*G6</f>
+        <v>2400</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v>Nov</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" si="3"/>
+        <v>45610</v>
+      </c>
+      <c r="Q6" s="17">
+        <f t="shared" si="4"/>
+        <v>47429</v>
+      </c>
+      <c r="R6" s="18">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="6"/>
+        <v>Ahm</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45604</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="4">
+        <f>F7*G7</f>
+        <v>45000</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>Nov</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="P7" s="17">
+        <f t="shared" si="3"/>
+        <v>45611</v>
+      </c>
+      <c r="Q7" s="17">
+        <f t="shared" si="4"/>
+        <v>47430</v>
+      </c>
+      <c r="R7" s="18">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="6"/>
+        <v>Hyd</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>101</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45605</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="4">
+        <f>F8*G8</f>
+        <v>4800</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v>Nov</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="P8" s="17">
+        <f t="shared" si="3"/>
+        <v>45612</v>
+      </c>
+      <c r="Q8" s="17">
+        <f t="shared" si="4"/>
+        <v>47431</v>
+      </c>
+      <c r="R8" s="18">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="6"/>
+        <v>Che</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>107</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2500</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>45606</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="4">
+        <f>F9*G9</f>
+        <v>2500</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="1"/>
+        <v>Nov</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="P9" s="17">
+        <f t="shared" si="3"/>
+        <v>45613</v>
+      </c>
+      <c r="Q9" s="17">
+        <f t="shared" si="4"/>
+        <v>47432</v>
+      </c>
+      <c r="R9" s="18">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="6"/>
+        <v>Kol</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45608</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="4">
+        <f>F10*G10</f>
+        <v>10000</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>Nov</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="P10" s="17">
+        <f t="shared" si="3"/>
+        <v>45615</v>
+      </c>
+      <c r="Q10" s="17">
+        <f t="shared" si="4"/>
+        <v>47434</v>
+      </c>
+      <c r="R10" s="18">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="6"/>
+        <v>Mum</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>105</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2">
+        <v>800</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>45609</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="4">
+        <f>F11*G11</f>
+        <v>800</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
+        <v>Nov</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="P11" s="17">
+        <f t="shared" si="3"/>
+        <v>45616</v>
+      </c>
+      <c r="Q11" s="17">
+        <f t="shared" si="4"/>
+        <v>47435</v>
+      </c>
+      <c r="R11" s="18">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="6"/>
+        <v>Jai</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="E12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="K12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="4">
+        <f>SUM(L2:L11)</f>
+        <v>100200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15">
+        <f>LOOKUP(B6,B2:B11,A2:A11)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>103</v>
+      </c>
+      <c r="B16" t="str">
+        <f>LOOKUP(A3,A2:A11,D2:D11)</f>
+        <v>Fashion</v>
+      </c>
+      <c r="D16">
+        <f>COUNTIF(J2:J11,"&gt;=3")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="str">
+        <f>LOOKUP(B9,B2:B11,K2:K11)</f>
+        <v>Delivered</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
+    <sortCondition ref="B2:B11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>